--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d7384295-Reviews-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Bokai-Garden-Hotel.h40515.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,326 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r391545003-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>7384295</t>
+  </si>
+  <si>
+    <t>391545003</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Stay away from this horrible hotel</t>
+  </si>
+  <si>
+    <t>If I can give a negative star, this horrible hotel will has -2 stars. staffs were extremely rude with attitude. If you stay for several nights, prepay to trap you stay as they will not refund the money to you. Their way of operation is: "you can check out early, but no refund for the day that you are not stay".  The room is dirty only, but the bathroom is dirty, smelly, disgusting, filthy. WIFI in the room, only attract you to book the hotel. Actually, WIFI only in the front desk. When inquire about WIFI in the room that they advertise, they will say: "Yes, we have WIFI in the room, but cannot connect to it. So, it is not false advertisement.".  On the other hands, location is super for this hotel - easy freeway, and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>If I can give a negative star, this horrible hotel will has -2 stars. staffs were extremely rude with attitude. If you stay for several nights, prepay to trap you stay as they will not refund the money to you. Their way of operation is: "you can check out early, but no refund for the day that you are not stay".  The room is dirty only, but the bathroom is dirty, smelly, disgusting, filthy. WIFI in the room, only attract you to book the hotel. Actually, WIFI only in the front desk. When inquire about WIFI in the room that they advertise, they will say: "Yes, we have WIFI in the room, but cannot connect to it. So, it is not false advertisement.".  On the other hands, location is super for this hotel - easy freeway, and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r355076093-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>355076093</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>If I can give a lower star I will</t>
+  </si>
+  <si>
+    <t>So maybe the beds and pillows were great with a good tv channel.But this is where it went bad :Moldy bathroom wallsA random long dried hair on the bathroom wall that didn't belong to us because we saw it before we even took a showerThe shower head looked moldyAnd the toilet didn't seem to be clean for monthsCracks on the bathroom wall like the paint was peelingsLet's also say how when I laid in bed, there were red stains on the ceiling with paint bubblesThey need to repair the hotels. I don't recommend for long stays.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r337569658-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>337569658</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Very dirty place</t>
+  </si>
+  <si>
+    <t>Our two days over the new years eve was a very bad experience. So many things were wrong with the service and management. We started a list and after 11, we just wanted be out of the place. Never again.As we checked out, we met two more groups who were unhappy.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r289544737-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>289544737</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Gave 2 stars because staff was polite</t>
+  </si>
+  <si>
+    <t>Was dissapointed that breakfast was toast and  cereal. We booked room because breakfast was included. Also no coffee or tea in room. There is a tea/coffee pot to plug in and use. No ice machine. TV is programmed for mostly Chinese stations. Children were really noisy, running and screaming down walkway until 11pm. Found a cockroach in my drawer when grabbing for socks. It scurried away and disappeared. We reported to staff who  said they would notify manager. Rooms have been updated. Staff nice...but I would never return. The veggie cuisine restaurant on the premises isn't vegetarian like I was told. Menu in Chinese. Asked waitress what specials are and she just smiled and pointed to a menu poster board. Had also been told it's inexpensive and it wasnt. Waitress seemed uninterested in communicating with us or she just didn't understand us. We got up and left...she laughed from window. We went to Chipotle in strip mall across street. Better choice. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Was dissapointed that breakfast was toast and  cereal. We booked room because breakfast was included. Also no coffee or tea in room. There is a tea/coffee pot to plug in and use. No ice machine. TV is programmed for mostly Chinese stations. Children were really noisy, running and screaming down walkway until 11pm. Found a cockroach in my drawer when grabbing for socks. It scurried away and disappeared. We reported to staff who  said they would notify manager. Rooms have been updated. Staff nice...but I would never return. The veggie cuisine restaurant on the premises isn't vegetarian like I was told. Menu in Chinese. Asked waitress what specials are and she just smiled and pointed to a menu poster board. Had also been told it's inexpensive and it wasnt. Waitress seemed uninterested in communicating with us or she just didn't understand us. We got up and left...she laughed from window. We went to Chipotle in strip mall across street. Better choice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r274910146-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>274910146</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Affordable...</t>
+  </si>
+  <si>
+    <t>Good location if you want to be in San Gabriel area to enjoy all the Asian food. There is not much to say about the room because there's not much there. The bed is too soft to sleep on. No decorations or theme concept. The restroom is below standard. They don't even give you drinking water. The price is affordable so for one night stay I don't mind, but not if you plan to stay long.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r235811692-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>235811692</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Hotel from Hell with Lots of Unexpected Extra Amenities</t>
+  </si>
+  <si>
+    <t>We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: 
+Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. 
+We were booked in for 4 nights:
+Day One Check In: 
+1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. 
+We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. 
+We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room...We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. We were booked in for 4 nights:Day One Check In: 1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room It so late that our kids were tired so we made do. Day Two Evening: We had expected the room to be made and cleaned during the day but nothing was done. We then asked for two extra towels from the front desk as we still only had 2 towels for a family of four. To our surprise, we received the following response: "We cannot give you extra towels and we cannot make up your room because the price you paid from hotwire was so cheap" - By the time my wife told me this and I went back to confront the front desk person, he had already closed the office for the evening. No one was there to confront. Day Three: We packed up our things in the morning and decided to move to another place and was looking for a refund for the remaining two nights.  Unfortunately, the person at Knights Inn we dealt with originally was not working until the evening so we had to make a trip back in the evening to resolve the issue.  In coordination with Hotwire, we were finally able receive a refund for the remaining 2 nights after 1hr of discussion.  The service person from Hotwire was exceptionally helpful and sympatheticBreakfast and Morning: This location caters to Asian tour buses and it was incredibly noisy in the morning. Complete lack of common sense for others staying in the hotel. People just talked loudly right outside your room door. Just to make things clear. We are an Asian family and very accustomed to the Asian culture so not many things surprise us.  We had to remind ourselves that we were still in USA considering the environment we were in.   If you are a calorie counter, this may be the breakfast stop for you.  Traditional white congee with preserved vegetables with optional sliced white bread and jam.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: 
+Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. 
+We were booked in for 4 nights:
+Day One Check In: 
+1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. 
+We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. 
+We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room...We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. We were booked in for 4 nights:Day One Check In: 1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room It so late that our kids were tired so we made do. Day Two Evening: We had expected the room to be made and cleaned during the day but nothing was done. We then asked for two extra towels from the front desk as we still only had 2 towels for a family of four. To our surprise, we received the following response: "We cannot give you extra towels and we cannot make up your room because the price you paid from hotwire was so cheap" - By the time my wife told me this and I went back to confront the front desk person, he had already closed the office for the evening. No one was there to confront. Day Three: We packed up our things in the morning and decided to move to another place and was looking for a refund for the remaining two nights.  Unfortunately, the person at Knights Inn we dealt with originally was not working until the evening so we had to make a trip back in the evening to resolve the issue.  In coordination with Hotwire, we were finally able receive a refund for the remaining 2 nights after 1hr of discussion.  The service person from Hotwire was exceptionally helpful and sympatheticBreakfast and Morning: This location caters to Asian tour buses and it was incredibly noisy in the morning. Complete lack of common sense for others staying in the hotel. People just talked loudly right outside your room door. Just to make things clear. We are an Asian family and very accustomed to the Asian culture so not many things surprise us.  We had to remind ourselves that we were still in USA considering the environment we were in.   If you are a calorie counter, this may be the breakfast stop for you.  Traditional white congee with preserved vegetables with optional sliced white bread and jam.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r211601673-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>211601673</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Nightmare in Rosemead.</t>
+  </si>
+  <si>
+    <t>This week we went to the Knights travelers OMG!  we never expected anything like this Before!!This hotel is not for American travelers!!! ,At all after two hours to find 1 room that would work for us with reservation,It was truly a nightmare ,1.The halls were dark 2.Most things were broken 3.old phone that won't work and an old Tv with no remote the channels are offensive Who knew pornography could be on Tv !!The bed was filled with hair,the bed is awful and felt like a rock,You wake up with a broken back.:/not a very fun Experience!!! please i don't recommend it!! sooo not worth it. no one ever changes the bedsheets,we had to sleep on top of the bed, the bathroom was filthy the wallpapers were never changed and room made me have fear the door-lock was broken and one of us had to watch if something happened.we had to push the chairs and table in-front of the door in fear. the best part of this Experience is leaving.  This hotel has really bad customer service, not family-friendly, not kid-friendly , not even pet-friendly, The elevator is really weird Plus no A/C , so i don't recommend this hotel for anyone who wants to have a hard time ,it's better going to a nicer looking place,that works!MoreShow less</t>
+  </si>
+  <si>
+    <t>This week we went to the Knights travelers OMG!  we never expected anything like this Before!!This hotel is not for American travelers!!! ,At all after two hours to find 1 room that would work for us with reservation,It was truly a nightmare ,1.The halls were dark 2.Most things were broken 3.old phone that won't work and an old Tv with no remote the channels are offensive Who knew pornography could be on Tv !!The bed was filled with hair,the bed is awful and felt like a rock,You wake up with a broken back.:/not a very fun Experience!!! please i don't recommend it!! sooo not worth it. no one ever changes the bedsheets,we had to sleep on top of the bed, the bathroom was filthy the wallpapers were never changed and room made me have fear the door-lock was broken and one of us had to watch if something happened.we had to push the chairs and table in-front of the door in fear. the best part of this Experience is leaving.  This hotel has really bad customer service, not family-friendly, not kid-friendly , not even pet-friendly, The elevator is really weird Plus no A/C , so i don't recommend this hotel for anyone who wants to have a hard time ,it's better going to a nicer looking place,that works!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r208045975-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>208045975</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Dirty and smelly "hotel"</t>
+  </si>
+  <si>
+    <t>I had to wait over two hours to check in because the room was not ready. the room looked dirty, the bathroom was completely filthy. when we wanted to take a shower the faucet was broken we reported it immediately and no one is worth a review. We spent two nights there and we could not used the shower had to go elsewhere. Had cockroaches in the pool and sauna with water sickening dark and stinky smell.Unfortunately I let a hair iron in the room and when I call to report it the front desk woman told me that I was lying that I had not missed anything and she hang up the phone. It is the worst "hotel" I have visited with the worst customer service. Please do not expose your family to a place as horrible as that. Should taking away the license to operate as a hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I had to wait over two hours to check in because the room was not ready. the room looked dirty, the bathroom was completely filthy. when we wanted to take a shower the faucet was broken we reported it immediately and no one is worth a review. We spent two nights there and we could not used the shower had to go elsewhere. Had cockroaches in the pool and sauna with water sickening dark and stinky smell.Unfortunately I let a hair iron in the room and when I call to report it the front desk woman told me that I was lying that I had not missed anything and she hang up the phone. It is the worst "hotel" I have visited with the worst customer service. Please do not expose your family to a place as horrible as that. Should taking away the license to operate as a hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r200754636-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>200754636</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>I'd give negative stars if I could</t>
+  </si>
+  <si>
+    <t>Hotel was AWFUL. Avoid at all costs if you can! Urine puddle on the bathroom floor, no working key the entire stay so we had to get the front desk to let us in every time, wallpaper stapled back onto the wall, open wiring in outlets, mildew in the bathroom, peephole blocked with a wad of tissue, free breakfast is only open for 1 hour and does not consist of anything recognizable if you are not Asian (seems to be a popular hotel with Chinese tourists, though). Still waiting to hear back from Wyndham on our complaint. There is no way this should be part of their chain, it was definitely not up to snuff! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Hotel was AWFUL. Avoid at all costs if you can! Urine puddle on the bathroom floor, no working key the entire stay so we had to get the front desk to let us in every time, wallpaper stapled back onto the wall, open wiring in outlets, mildew in the bathroom, peephole blocked with a wad of tissue, free breakfast is only open for 1 hour and does not consist of anything recognizable if you are not Asian (seems to be a popular hotel with Chinese tourists, though). Still waiting to hear back from Wyndham on our complaint. There is no way this should be part of their chain, it was definitely not up to snuff! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r183762980-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>183762980</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Go knowing what to expect</t>
+  </si>
+  <si>
+    <t>After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.
+The hotel has its plus sides.  1. Reasonable rates for...After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.The hotel has its plus sides.  1. Reasonable rates for Los Angeles County and free parking.  2.  The breakfast attendant lady is very nice and the guests truly appreciate her.  3.  Location.  It is right off the 10 freeway, and in a relatively safe, quiet area.  Pasadena, Griffith Park, and Downtown Los Angeles are relatively nearby.  4.  There are supermarkets and grocery stores North and South of the hotel on Rosemead Boulevard.   5.  There are excellent Asian restaurants in Rosemead.  There is a vegetarian restaurant next to the hotel but I did not have have a chance to try it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.
+The hotel has its plus sides.  1. Reasonable rates for...After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.The hotel has its plus sides.  1. Reasonable rates for Los Angeles County and free parking.  2.  The breakfast attendant lady is very nice and the guests truly appreciate her.  3.  Location.  It is right off the 10 freeway, and in a relatively safe, quiet area.  Pasadena, Griffith Park, and Downtown Los Angeles are relatively nearby.  4.  There are supermarkets and grocery stores North and South of the hotel on Rosemead Boulevard.   5.  There are excellent Asian restaurants in Rosemead.  There is a vegetarian restaurant next to the hotel but I did not have have a chance to try it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r178343723-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>178343723</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER !!!</t>
+  </si>
+  <si>
+    <t>It tools my girlfriend and I 2 and half hrs to check in because they didn't have at  reservations we pulled up the confirmation number gave it to them they said because it's paid with points I had to print it up wouldn't let me use there computer to print it so it took us a hour and a half to print it up and come back then the owner was there asking us questions about are points how we got them talking down to us!!! Then says we need a deposit I try to give him my card but insist it has to be in MONEY!!! So went to a atm he asked for $35  then we come back he lowered his deposit price  to $20 when I told him I calling corporate to complain! To top it off he gave us a 2 queen beds in a small room when I asked for a 1 king and let me not this the hotel was not over booked its a dump!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>It tools my girlfriend and I 2 and half hrs to check in because they didn't have at  reservations we pulled up the confirmation number gave it to them they said because it's paid with points I had to print it up wouldn't let me use there computer to print it so it took us a hour and a half to print it up and come back then the owner was there asking us questions about are points how we got them talking down to us!!! Then says we need a deposit I try to give him my card but insist it has to be in MONEY!!! So went to a atm he asked for $35  then we come back he lowered his deposit price  to $20 when I told him I calling corporate to complain! To top it off he gave us a 2 queen beds in a small room when I asked for a 1 king and let me not this the hotel was not over booked its a dump!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r116793490-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>116793490</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>A good time for long trip</t>
+  </si>
+  <si>
+    <t>All of the cashiers are speaking chinese very well. I traveled all the way from China with my travel group. Breakfast is good. The front desk service is pretty good. They give me instructions on everything. Even give me the directions to the nearest Chinese restaurant. I left my key in the room, an off shift staff helped me to get a new one at the front desk.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r48265596-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>48265596</t>
+  </si>
+  <si>
+    <t>11/01/2009</t>
+  </si>
+  <si>
+    <t>cheap stay with convenient location</t>
+  </si>
+  <si>
+    <t>we booked the room as this inn is near the hospital I was visiting.  It is very close to Fwy 10 Rosemead exit and there are Target and restaurant across the street. Denny's next to it give you 20% discount if you stay at K.I. The hotel is mainly for Chinese/Asian tour group and it has Chinese TV channels and signs. Not enough wall plug as I try to charge my cell phone and laptop. Housekeeping is friendly and don't expect exceptional service  if you are paying $60 per night.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r37421350-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>37421350</t>
+  </si>
+  <si>
+    <t>08/11/2009</t>
+  </si>
+  <si>
+    <t>"Do not stay here all on their web site is a lie"</t>
+  </si>
+  <si>
+    <t>I traveled with my 3 young children and my husband area is fine, but the hotel as soon as you walk in the lobby their is no friendly people that greet you at all, then when you get your keys and told what room you never get what you had reserved. I had reserved a non smoking room, I got a smoking room when you walk on the halls there is trash all over and graffiti the elevator feels like is going to drop you. I decided for this hotel cause supposed to have continental breakfast , refrigerator, microwave, ironing board, iron and coffee pot well to my surprise nothing of that was in the room, ended up purshasing a iron and a cooler to keep my sons milk fresh and last no satellite local tv only and not even a tv. control or any information about services on room, not to even mention the bee hives and bees outside the room door ceiling. Terrible stay will never go back for SURE and I will advise friends never to go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I traveled with my 3 young children and my husband area is fine, but the hotel as soon as you walk in the lobby their is no friendly people that greet you at all, then when you get your keys and told what room you never get what you had reserved. I had reserved a non smoking room, I got a smoking room when you walk on the halls there is trash all over and graffiti the elevator feels like is going to drop you. I decided for this hotel cause supposed to have continental breakfast , refrigerator, microwave, ironing board, iron and coffee pot well to my surprise nothing of that was in the room, ended up purshasing a iron and a cooler to keep my sons milk fresh and last no satellite local tv only and not even a tv. control or any information about services on room, not to even mention the bee hives and bees outside the room door ceiling. Terrible stay will never go back for SURE and I will advise friends never to go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r3003650-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>3003650</t>
+  </si>
+  <si>
+    <t>01/11/2005</t>
+  </si>
+  <si>
+    <t>good bargain for short stay</t>
+  </si>
+  <si>
+    <t>We stayed one night at the hotel on Dec. 27, 2004.  The gated entrance may indicate security problem but we didn't have any trouble.  We stayed on the second floor (217).  The room was clean and the toiletry was adequate.  The towels were quite worn out but useable.  There is TV, mini fridge, air cond &amp; heater.  It provided a good night stay at $60 (tax included) for a king size bed.  The location is great--a shopping centre across the street and Denny on premise and very accessible to freeway.  The food at Denny is good and the IHOP across the street is good, too.  If you are looking for a budget place to stay, it's worth the buck.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at the hotel on Dec. 27, 2004.  The gated entrance may indicate security problem but we didn't have any trouble.  We stayed on the second floor (217).  The room was clean and the toiletry was adequate.  The towels were quite worn out but useable.  There is TV, mini fridge, air cond &amp; heater.  It provided a good night stay at $60 (tax included) for a king size bed.  The location is great--a shopping centre across the street and Denny on premise and very accessible to freeway.  The food at Denny is good and the IHOP across the street is good, too.  If you are looking for a budget place to stay, it's worth the buck.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +968,941 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>hans0927</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>If I can give a negative star, this horrible hotel will has -2 stars. staffs were extremely rude with attitude. If you stay for several nights, prepay to trap you stay as they will not refund the money to you. Their way of operation is: "you can check out early, but no refund for the day that you are not stay".  The room is dirty only, but the bathroom is dirty, smelly, disgusting, filthy. WIFI in the room, only attract you to book the hotel. Actually, WIFI only in the front desk. When inquire about WIFI in the room that they advertise, they will say: "Yes, we have WIFI in the room, but cannot connect to it. So, it is not false advertisement.".  On the other hands, location is super for this hotel - easy freeway, and shopping.More</t>
   </si>
   <si>
+    <t>JGPI114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r355076093-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>So maybe the beds and pillows were great with a good tv channel.But this is where it went bad :Moldy bathroom wallsA random long dried hair on the bathroom wall that didn't belong to us because we saw it before we even took a showerThe shower head looked moldyAnd the toilet didn't seem to be clean for monthsCracks on the bathroom wall like the paint was peelingsLet's also say how when I laid in bed, there were red stains on the ceiling with paint bubblesThey need to repair the hotels. I don't recommend for long stays.</t>
   </si>
   <si>
+    <t>MarkSheen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r337569658-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>janet n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r289544737-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Was dissapointed that breakfast was toast and  cereal. We booked room because breakfast was included. Also no coffee or tea in room. There is a tea/coffee pot to plug in and use. No ice machine. TV is programmed for mostly Chinese stations. Children were really noisy, running and screaming down walkway until 11pm. Found a cockroach in my drawer when grabbing for socks. It scurried away and disappeared. We reported to staff who  said they would notify manager. Rooms have been updated. Staff nice...but I would never return. The veggie cuisine restaurant on the premises isn't vegetarian like I was told. Menu in Chinese. Asked waitress what specials are and she just smiled and pointed to a menu poster board. Had also been told it's inexpensive and it wasnt. Waitress seemed uninterested in communicating with us or she just didn't understand us. We got up and left...she laughed from window. We went to Chipotle in strip mall across street. Better choice. More</t>
   </si>
   <si>
+    <t>Thomashour</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r274910146-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jordan W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r235811692-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -291,6 +309,9 @@
 We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room...We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. We were booked in for 4 nights:Day One Check In: 1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room It so late that our kids were tired so we made do. Day Two Evening: We had expected the room to be made and cleaned during the day but nothing was done. We then asked for two extra towels from the front desk as we still only had 2 towels for a family of four. To our surprise, we received the following response: "We cannot give you extra towels and we cannot make up your room because the price you paid from hotwire was so cheap" - By the time my wife told me this and I went back to confront the front desk person, he had already closed the office for the evening. No one was there to confront. Day Three: We packed up our things in the morning and decided to move to another place and was looking for a refund for the remaining two nights.  Unfortunately, the person at Knights Inn we dealt with originally was not working until the evening so we had to make a trip back in the evening to resolve the issue.  In coordination with Hotwire, we were finally able receive a refund for the remaining 2 nights after 1hr of discussion.  The service person from Hotwire was exceptionally helpful and sympatheticBreakfast and Morning: This location caters to Asian tour buses and it was incredibly noisy in the morning. Complete lack of common sense for others staying in the hotel. People just talked loudly right outside your room door. Just to make things clear. We are an Asian family and very accustomed to the Asian culture so not many things surprise us.  We had to remind ourselves that we were still in USA considering the environment we were in.   If you are a calorie counter, this may be the breakfast stop for you.  Traditional white congee with preserved vegetables with optional sliced white bread and jam.More</t>
   </si>
   <si>
+    <t>Lexie f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r211601673-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>This week we went to the Knights travelers OMG!  we never expected anything like this Before!!This hotel is not for American travelers!!! ,At all after two hours to find 1 room that would work for us with reservation,It was truly a nightmare ,1.The halls were dark 2.Most things were broken 3.old phone that won't work and an old Tv with no remote the channels are offensive Who knew pornography could be on Tv !!The bed was filled with hair,the bed is awful and felt like a rock,You wake up with a broken back.:/not a very fun Experience!!! please i don't recommend it!! sooo not worth it. no one ever changes the bedsheets,we had to sleep on top of the bed, the bathroom was filthy the wallpapers were never changed and room made me have fear the door-lock was broken and one of us had to watch if something happened.we had to push the chairs and table in-front of the door in fear. the best part of this Experience is leaving.  This hotel has really bad customer service, not family-friendly, not kid-friendly , not even pet-friendly, The elevator is really weird Plus no A/C , so i don't recommend this hotel for anyone who wants to have a hard time ,it's better going to a nicer looking place,that works!More</t>
   </si>
   <si>
+    <t>Adriana3101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r208045975-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>I had to wait over two hours to check in because the room was not ready. the room looked dirty, the bathroom was completely filthy. when we wanted to take a shower the faucet was broken we reported it immediately and no one is worth a review. We spent two nights there and we could not used the shower had to go elsewhere. Had cockroaches in the pool and sauna with water sickening dark and stinky smell.Unfortunately I let a hair iron in the room and when I call to report it the front desk woman told me that I was lying that I had not missed anything and she hang up the phone. It is the worst "hotel" I have visited with the worst customer service. Please do not expose your family to a place as horrible as that. Should taking away the license to operate as a hotelMore</t>
   </si>
   <si>
+    <t>dsmath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r200754636-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -349,6 +376,9 @@
   </si>
   <si>
     <t>Hotel was AWFUL. Avoid at all costs if you can! Urine puddle on the bathroom floor, no working key the entire stay so we had to get the front desk to let us in every time, wallpaper stapled back onto the wall, open wiring in outlets, mildew in the bathroom, peephole blocked with a wad of tissue, free breakfast is only open for 1 hour and does not consist of anything recognizable if you are not Asian (seems to be a popular hotel with Chinese tourists, though). Still waiting to hear back from Wyndham on our complaint. There is no way this should be part of their chain, it was definitely not up to snuff! More</t>
+  </si>
+  <si>
+    <t>molivos</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r183762980-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -374,6 +404,9 @@
 The hotel has its plus sides.  1. Reasonable rates for...After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.The hotel has its plus sides.  1. Reasonable rates for Los Angeles County and free parking.  2.  The breakfast attendant lady is very nice and the guests truly appreciate her.  3.  Location.  It is right off the 10 freeway, and in a relatively safe, quiet area.  Pasadena, Griffith Park, and Downtown Los Angeles are relatively nearby.  4.  There are supermarkets and grocery stores North and South of the hotel on Rosemead Boulevard.   5.  There are excellent Asian restaurants in Rosemead.  There is a vegetarian restaurant next to the hotel but I did not have have a chance to try it.More</t>
   </si>
   <si>
+    <t>Alfred A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r178343723-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -395,6 +428,9 @@
     <t>It tools my girlfriend and I 2 and half hrs to check in because they didn't have at  reservations we pulled up the confirmation number gave it to them they said because it's paid with points I had to print it up wouldn't let me use there computer to print it so it took us a hour and a half to print it up and come back then the owner was there asking us questions about are points how we got them talking down to us!!! Then says we need a deposit I try to give him my card but insist it has to be in MONEY!!! So went to a atm he asked for $35  then we come back he lowered his deposit price  to $20 when I told him I calling corporate to complain! To top it off he gave us a 2 queen beds in a small room when I asked for a 1 king and let me not this the hotel was not over booked its a dump!!!!!More</t>
   </si>
   <si>
+    <t>restaurant f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r116793490-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -413,6 +449,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>bbkwong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r48265596-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -431,6 +470,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>misgordas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r37421350-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
   </si>
   <si>
     <t>I traveled with my 3 young children and my husband area is fine, but the hotel as soon as you walk in the lobby their is no friendly people that greet you at all, then when you get your keys and told what room you never get what you had reserved. I had reserved a non smoking room, I got a smoking room when you walk on the halls there is trash all over and graffiti the elevator feels like is going to drop you. I decided for this hotel cause supposed to have continental breakfast , refrigerator, microwave, ironing board, iron and coffee pot well to my surprise nothing of that was in the room, ended up purshasing a iron and a cooler to keep my sons milk fresh and last no satellite local tv only and not even a tv. control or any information about services on room, not to even mention the bee hives and bees outside the room door ceiling. Terrible stay will never go back for SURE and I will advise friends never to go there.More</t>
+  </si>
+  <si>
+    <t>fredangi</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r3003650-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -972,43 +1017,47 @@
       <c r="A2" t="n">
         <v>10387</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129962</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1028,41 +1077,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10387</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -1081,50 +1134,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10387</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>129964</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1142,50 +1199,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10387</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>129965</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1199,50 +1260,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10387</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129966</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1256,50 +1321,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10387</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>61439</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1317,50 +1386,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10387</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129967</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1384,50 +1457,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10387</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>129968</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1451,50 +1528,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10387</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129969</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1518,50 +1599,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10387</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>129970</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1585,50 +1670,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10387</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>129971</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1652,50 +1741,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10387</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>129972</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1715,50 +1808,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10387</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129973</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1782,50 +1879,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10387</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>129974</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1847,41 +1948,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10387</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129975</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
@@ -1900,7 +2005,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
@@ -1018,7 +1018,7 @@
         <v>10387</v>
       </c>
       <c r="B2" t="n">
-        <v>129962</v>
+        <v>160670</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1085,7 +1085,7 @@
         <v>10387</v>
       </c>
       <c r="B3" t="n">
-        <v>129963</v>
+        <v>160671</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -1142,7 +1142,7 @@
         <v>10387</v>
       </c>
       <c r="B4" t="n">
-        <v>129964</v>
+        <v>160672</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1207,7 +1207,7 @@
         <v>10387</v>
       </c>
       <c r="B5" t="n">
-        <v>129965</v>
+        <v>160673</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1268,7 +1268,7 @@
         <v>10387</v>
       </c>
       <c r="B6" t="n">
-        <v>129966</v>
+        <v>160674</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -1394,7 +1394,7 @@
         <v>10387</v>
       </c>
       <c r="B8" t="n">
-        <v>129967</v>
+        <v>160675</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -1465,7 +1465,7 @@
         <v>10387</v>
       </c>
       <c r="B9" t="n">
-        <v>129968</v>
+        <v>160676</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -1536,7 +1536,7 @@
         <v>10387</v>
       </c>
       <c r="B10" t="n">
-        <v>129969</v>
+        <v>160677</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1607,7 +1607,7 @@
         <v>10387</v>
       </c>
       <c r="B11" t="n">
-        <v>129970</v>
+        <v>160678</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -1678,7 +1678,7 @@
         <v>10387</v>
       </c>
       <c r="B12" t="n">
-        <v>129971</v>
+        <v>160679</v>
       </c>
       <c r="C12" t="s">
         <v>124</v>
@@ -1749,7 +1749,7 @@
         <v>10387</v>
       </c>
       <c r="B13" t="n">
-        <v>129972</v>
+        <v>160680</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -1816,7 +1816,7 @@
         <v>10387</v>
       </c>
       <c r="B14" t="n">
-        <v>129973</v>
+        <v>160681</v>
       </c>
       <c r="C14" t="s">
         <v>139</v>
@@ -1887,7 +1887,7 @@
         <v>10387</v>
       </c>
       <c r="B15" t="n">
-        <v>129974</v>
+        <v>160682</v>
       </c>
       <c r="C15" t="s">
         <v>146</v>
@@ -1956,7 +1956,7 @@
         <v>10387</v>
       </c>
       <c r="B16" t="n">
-        <v>129975</v>
+        <v>160683</v>
       </c>
       <c r="C16" t="s">
         <v>154</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_94.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>hans0927</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r592966287-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>7384295</t>
+  </si>
+  <si>
+    <t>592966287</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rude, dirty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpets in room so dirty made feet black.looked under beds never cleaned, dust bunnies galore.Rude staff who could care less.Asked if there is a rest room I could use, was told no public toilets, reminded them I am a guest not general public, was told to go across the street and use toilets at restaurant.price confirmed with booking. com is not what they charged.1 star rating review is to generoushotel caters to Chinese tour groups and could care less if you not Asian.stay clear of this place. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r554505439-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>554505439</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>A work in progress</t>
+  </si>
+  <si>
+    <t>I couldn't tell if the Hotel was just taken over by new management or old management that needs to change.  Only 1 guy at the front desk knew how to do everything , run the credit card machine, how to enter things in the computer.   The room was clean but VERY basic. No fridge, no microwave, no coffee pot.   The extra lamps were all unplugged, the TV remote wasn't programmed to work the TV. the telephone in the room didn't even work.  On the plus side the room was cleaned everyday, the breakfast room was very clean and well stocked and the area was very quiet.  Target and IHOP right across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I couldn't tell if the Hotel was just taken over by new management or old management that needs to change.  Only 1 guy at the front desk knew how to do everything , run the credit card machine, how to enter things in the computer.   The room was clean but VERY basic. No fridge, no microwave, no coffee pot.   The extra lamps were all unplugged, the TV remote wasn't programmed to work the TV. the telephone in the room didn't even work.  On the plus side the room was cleaned everyday, the breakfast room was very clean and well stocked and the area was very quiet.  Target and IHOP right across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r436081949-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>436081949</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a cheap hotel so don't expect 5 stars.  But the room was clean, the bathroom isn't the best and could do with a renovation but for the price paid it is certainly better than most backpackers I've stayed at and can be just as cheap as some. There are shops and restaurants across the road which was convenient but it's not particularly close to LA and it cost a little bit to get and Uber to and from. Wouldn't go out of my way to stay here due to location but it suited our needs for a tour pick up. Certainly stayed in worse more expensive places. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r391545003-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
-    <t>32987</t>
-  </si>
-  <si>
-    <t>7384295</t>
-  </si>
-  <si>
     <t>391545003</t>
   </si>
   <si>
@@ -180,15 +240,9 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>If I can give a negative star, this horrible hotel will has -2 stars. staffs were extremely rude with attitude. If you stay for several nights, prepay to trap you stay as they will not refund the money to you. Their way of operation is: "you can check out early, but no refund for the day that you are not stay".  The room is dirty only, but the bathroom is dirty, smelly, disgusting, filthy. WIFI in the room, only attract you to book the hotel. Actually, WIFI only in the front desk. When inquire about WIFI in the room that they advertise, they will say: "Yes, we have WIFI in the room, but cannot connect to it. So, it is not false advertisement.".  On the other hands, location is super for this hotel - easy freeway, and shopping.More</t>
   </si>
   <si>
-    <t>JGPI114</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r355076093-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>So maybe the beds and pillows were great with a good tv channel.But this is where it went bad :Moldy bathroom wallsA random long dried hair on the bathroom wall that didn't belong to us because we saw it before we even took a showerThe shower head looked moldyAnd the toilet didn't seem to be clean for monthsCracks on the bathroom wall like the paint was peelingsLet's also say how when I laid in bed, there were red stains on the ceiling with paint bubblesThey need to repair the hotels. I don't recommend for long stays.</t>
   </si>
   <si>
-    <t>MarkSheen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r337569658-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -225,7 +276,49 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>janet n</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r299240912-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>299240912</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Won't Be Going Back Here</t>
+  </si>
+  <si>
+    <t>Strange place.  Weird, security gate entrance to the rooms.  Wi-fi did not work.  TV channels only local digital, mostly Asian and Spanish, no cable or news channels.  No top sheet on the bed, just a bottom sheet and a blanket.  Dirty closet with no door.  Newer furniture, but it was already falling apart.  Looks like an old dumpy hotel that was renovated so they could charge more without improving much.  Also, after I made the reservation, I called immediately to try to change the date to the next night, but they would not help me.  No ice machine.  Won't be going back here.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r290509561-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>290509561</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Cockroaches, mildew, noisy children, smoke coming in my room, no coffee, no ice machine, channels are mostly chinese</t>
+  </si>
+  <si>
+    <t>COCKROACHES!!! I found 7 cockroaches in this hotel. One large one in the drawer, the following day a small one in the drawer, a small one on the wall in bathroom, 2 small ones on the shower and 2 small ones on vanity. We reported this to staff and were offered a 10% off on next stay except we will never be back. That's the best they could. do. They would not move us either. In addition to the cockroaches, the rooms smelled of mildew, the door had a gap at the top so the people smoking outside on the walkway had all their smoke come into our room all night long. Children were above us and wrestling loud enough to shake our headboard at 10 pm at night. We called to report it but the front desk answered speaking to another in Chinese and then hung up on us. We went down and explained, they apologized and said they'd call. The noise did stop. There was no coffee or tea in room. Breakfast was milk (which was sitting out and not kept cool-when it was in the 90's outside) cereal and peanut butter in a jar! Which also was gross-everyone using same jar. That's not what I call a free breakfast buffet. This was the worst experience. Spent an hour going through my stuff to be sure I didn't bring home cockroaches. I got the feeling the staff didn't...COCKROACHES!!! I found 7 cockroaches in this hotel. One large one in the drawer, the following day a small one in the drawer, a small one on the wall in bathroom, 2 small ones on the shower and 2 small ones on vanity. We reported this to staff and were offered a 10% off on next stay except we will never be back. That's the best they could. do. They would not move us either. In addition to the cockroaches, the rooms smelled of mildew, the door had a gap at the top so the people smoking outside on the walkway had all their smoke come into our room all night long. Children were above us and wrestling loud enough to shake our headboard at 10 pm at night. We called to report it but the front desk answered speaking to another in Chinese and then hung up on us. We went down and explained, they apologized and said they'd call. The noise did stop. There was no coffee or tea in room. Breakfast was milk (which was sitting out and not kept cool-when it was in the 90's outside) cereal and peanut butter in a jar! Which also was gross-everyone using same jar. That's not what I call a free breakfast buffet. This was the worst experience. Spent an hour going through my stuff to be sure I didn't bring home cockroaches. I got the feeling the staff didn't care about us at all and were just in it for the money. Next hotel we stayed at was similar in size and cost, but the treatment was so different. The room had coffee, no bugs, there was an ice machine on premise, it was quiet and the staff  treated us well. Oh and we watched HBO instead of all chinese stations which I don't speak Chinese so I couldnt watch tv at all. Wish I'd noticed the bad reviews but the first few I saw were good. I am not sure how since this place was filthy. The rooms do look nice because they have added new fixtures but the grounds are dirty, elevator dirty and the fact that rooms smelled and had cockroaches means that the new fixtures just cover things cosmetically. This place is run down and they don't careMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>COCKROACHES!!! I found 7 cockroaches in this hotel. One large one in the drawer, the following day a small one in the drawer, a small one on the wall in bathroom, 2 small ones on the shower and 2 small ones on vanity. We reported this to staff and were offered a 10% off on next stay except we will never be back. That's the best they could. do. They would not move us either. In addition to the cockroaches, the rooms smelled of mildew, the door had a gap at the top so the people smoking outside on the walkway had all their smoke come into our room all night long. Children were above us and wrestling loud enough to shake our headboard at 10 pm at night. We called to report it but the front desk answered speaking to another in Chinese and then hung up on us. We went down and explained, they apologized and said they'd call. The noise did stop. There was no coffee or tea in room. Breakfast was milk (which was sitting out and not kept cool-when it was in the 90's outside) cereal and peanut butter in a jar! Which also was gross-everyone using same jar. That's not what I call a free breakfast buffet. This was the worst experience. Spent an hour going through my stuff to be sure I didn't bring home cockroaches. I got the feeling the staff didn't...COCKROACHES!!! I found 7 cockroaches in this hotel. One large one in the drawer, the following day a small one in the drawer, a small one on the wall in bathroom, 2 small ones on the shower and 2 small ones on vanity. We reported this to staff and were offered a 10% off on next stay except we will never be back. That's the best they could. do. They would not move us either. In addition to the cockroaches, the rooms smelled of mildew, the door had a gap at the top so the people smoking outside on the walkway had all their smoke come into our room all night long. Children were above us and wrestling loud enough to shake our headboard at 10 pm at night. We called to report it but the front desk answered speaking to another in Chinese and then hung up on us. We went down and explained, they apologized and said they'd call. The noise did stop. There was no coffee or tea in room. Breakfast was milk (which was sitting out and not kept cool-when it was in the 90's outside) cereal and peanut butter in a jar! Which also was gross-everyone using same jar. That's not what I call a free breakfast buffet. This was the worst experience. Spent an hour going through my stuff to be sure I didn't bring home cockroaches. I got the feeling the staff didn't care about us at all and were just in it for the money. Next hotel we stayed at was similar in size and cost, but the treatment was so different. The room had coffee, no bugs, there was an ice machine on premise, it was quiet and the staff  treated us well. Oh and we watched HBO instead of all chinese stations which I don't speak Chinese so I couldnt watch tv at all. Wish I'd noticed the bad reviews but the first few I saw were good. I am not sure how since this place was filthy. The rooms do look nice because they have added new fixtures but the grounds are dirty, elevator dirty and the fact that rooms smelled and had cockroaches means that the new fixtures just cover things cosmetically. This place is run down and they don't careMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r289544737-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -243,18 +336,9 @@
     <t>Was dissapointed that breakfast was toast and  cereal. We booked room because breakfast was included. Also no coffee or tea in room. There is a tea/coffee pot to plug in and use. No ice machine. TV is programmed for mostly Chinese stations. Children were really noisy, running and screaming down walkway until 11pm. Found a cockroach in my drawer when grabbing for socks. It scurried away and disappeared. We reported to staff who  said they would notify manager. Rooms have been updated. Staff nice...but I would never return. The veggie cuisine restaurant on the premises isn't vegetarian like I was told. Menu in Chinese. Asked waitress what specials are and she just smiled and pointed to a menu poster board. Had also been told it's inexpensive and it wasnt. Waitress seemed uninterested in communicating with us or she just didn't understand us. We got up and left...she laughed from window. We went to Chipotle in strip mall across street. Better choice. MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Was dissapointed that breakfast was toast and  cereal. We booked room because breakfast was included. Also no coffee or tea in room. There is a tea/coffee pot to plug in and use. No ice machine. TV is programmed for mostly Chinese stations. Children were really noisy, running and screaming down walkway until 11pm. Found a cockroach in my drawer when grabbing for socks. It scurried away and disappeared. We reported to staff who  said they would notify manager. Rooms have been updated. Staff nice...but I would never return. The veggie cuisine restaurant on the premises isn't vegetarian like I was told. Menu in Chinese. Asked waitress what specials are and she just smiled and pointed to a menu poster board. Had also been told it's inexpensive and it wasnt. Waitress seemed uninterested in communicating with us or she just didn't understand us. We got up and left...she laughed from window. We went to Chipotle in strip mall across street. Better choice. More</t>
   </si>
   <si>
-    <t>Thomashour</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r274910146-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -271,9 +355,6 @@
   </si>
   <si>
     <t>May 2015</t>
-  </si>
-  <si>
-    <t>Jordan W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r235811692-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -309,7 +390,37 @@
 We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room...We visited this place in June as a family of four. Even after 4 months, its hard not to forget our experiences at this place. Too much to comment, so in point form: Overall appearance: neglected facilities. Elevator did not have proper licensing posted, bubble gum stuck on elevator wall, dangling exit sign. We were booked in for 4 nights:Day One Check In: 1st room we received only had partially working power. Air conditioner did not function and no power to bedside lamps. Outlets in the bathroom area were so loose that my phone charger plug fell out from the socket. Partially working door lock. We asked the maintenance person to fix the power or fuse to the room. Only to find out that the air conditioner was broken and not because of lack of power. We then asked for a change of room and moved to the main floor room. We were even more surprised to be greeted with the "extra" detailing to our room including profanity inscribed on the inside door molding, graffiti on the toilet seat, no luggage stand to put our luggage, 2 twin beds that had bed sheets but no blankets, a busted door lock again, an air conditioner that was literally 30cm from bedside and 2 towels for showering for a family of 4. I ended up grabbing the luggage stand and blankets from the 1st room to use in our current room It so late that our kids were tired so we made do. Day Two Evening: We had expected the room to be made and cleaned during the day but nothing was done. We then asked for two extra towels from the front desk as we still only had 2 towels for a family of four. To our surprise, we received the following response: "We cannot give you extra towels and we cannot make up your room because the price you paid from hotwire was so cheap" - By the time my wife told me this and I went back to confront the front desk person, he had already closed the office for the evening. No one was there to confront. Day Three: We packed up our things in the morning and decided to move to another place and was looking for a refund for the remaining two nights.  Unfortunately, the person at Knights Inn we dealt with originally was not working until the evening so we had to make a trip back in the evening to resolve the issue.  In coordination with Hotwire, we were finally able receive a refund for the remaining 2 nights after 1hr of discussion.  The service person from Hotwire was exceptionally helpful and sympatheticBreakfast and Morning: This location caters to Asian tour buses and it was incredibly noisy in the morning. Complete lack of common sense for others staying in the hotel. People just talked loudly right outside your room door. Just to make things clear. We are an Asian family and very accustomed to the Asian culture so not many things surprise us.  We had to remind ourselves that we were still in USA considering the environment we were in.   If you are a calorie counter, this may be the breakfast stop for you.  Traditional white congee with preserved vegetables with optional sliced white bread and jam.More</t>
   </si>
   <si>
-    <t>Lexie f</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r215208203-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>215208203</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>I wish I could give it less than one</t>
+  </si>
+  <si>
+    <t>This place is worst than the nastiest place you can imagine. There is mold in the bathroom, the tub is dirty. The room smelled. There is no free internet, or breakfast of any knid. The people at the front desk, pretend not to speak english when you complain. I had to go to target across the street to buy sheets, and covers to put over there things. Then I left them there, cause I didn't want to take it back to my home. They are so gross I'm sure they will use them. A TOTAL WASTE OF MONEY!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r213949746-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>213949746</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Horrible - stay away</t>
+  </si>
+  <si>
+    <t>Agree with last reviewers. Keys didn't work. Urine smell in public areas. Last people didn't check out and we walked in on them. Two poor Pakistani tourists were in waiting room for 4 hours because the lost their reservation. Internet didn't work. No toiliet paper, furniture broken, why go on?</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r211601673-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -330,9 +441,6 @@
     <t>This week we went to the Knights travelers OMG!  we never expected anything like this Before!!This hotel is not for American travelers!!! ,At all after two hours to find 1 room that would work for us with reservation,It was truly a nightmare ,1.The halls were dark 2.Most things were broken 3.old phone that won't work and an old Tv with no remote the channels are offensive Who knew pornography could be on Tv !!The bed was filled with hair,the bed is awful and felt like a rock,You wake up with a broken back.:/not a very fun Experience!!! please i don't recommend it!! sooo not worth it. no one ever changes the bedsheets,we had to sleep on top of the bed, the bathroom was filthy the wallpapers were never changed and room made me have fear the door-lock was broken and one of us had to watch if something happened.we had to push the chairs and table in-front of the door in fear. the best part of this Experience is leaving.  This hotel has really bad customer service, not family-friendly, not kid-friendly , not even pet-friendly, The elevator is really weird Plus no A/C , so i don't recommend this hotel for anyone who wants to have a hard time ,it's better going to a nicer looking place,that works!More</t>
   </si>
   <si>
-    <t>Adriana3101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r208045975-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -354,9 +462,6 @@
     <t>I had to wait over two hours to check in because the room was not ready. the room looked dirty, the bathroom was completely filthy. when we wanted to take a shower the faucet was broken we reported it immediately and no one is worth a review. We spent two nights there and we could not used the shower had to go elsewhere. Had cockroaches in the pool and sauna with water sickening dark and stinky smell.Unfortunately I let a hair iron in the room and when I call to report it the front desk woman told me that I was lying that I had not missed anything and she hang up the phone. It is the worst "hotel" I have visited with the worst customer service. Please do not expose your family to a place as horrible as that. Should taking away the license to operate as a hotelMore</t>
   </si>
   <si>
-    <t>dsmath</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r200754636-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -366,19 +471,55 @@
     <t>04/11/2014</t>
   </si>
   <si>
-    <t>I'd give negative stars if I could</t>
-  </si>
-  <si>
-    <t>Hotel was AWFUL. Avoid at all costs if you can! Urine puddle on the bathroom floor, no working key the entire stay so we had to get the front desk to let us in every time, wallpaper stapled back onto the wall, open wiring in outlets, mildew in the bathroom, peephole blocked with a wad of tissue, free breakfast is only open for 1 hour and does not consist of anything recognizable if you are not Asian (seems to be a popular hotel with Chinese tourists, though). Still waiting to hear back from Wyndham on our complaint. There is no way this should be part of their chain, it was definitely not up to snuff! MoreShow less</t>
+    <t>MoreShow less</t>
   </si>
   <si>
     <t>March 2014</t>
   </si>
   <si>
-    <t>Hotel was AWFUL. Avoid at all costs if you can! Urine puddle on the bathroom floor, no working key the entire stay so we had to get the front desk to let us in every time, wallpaper stapled back onto the wall, open wiring in outlets, mildew in the bathroom, peephole blocked with a wad of tissue, free breakfast is only open for 1 hour and does not consist of anything recognizable if you are not Asian (seems to be a popular hotel with Chinese tourists, though). Still waiting to hear back from Wyndham on our complaint. There is no way this should be part of their chain, it was definitely not up to snuff! More</t>
-  </si>
-  <si>
-    <t>molivos</t>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r190490458-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>190490458</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Nightmare on Rosemead Street</t>
+  </si>
+  <si>
+    <t>Upon check in they did not honor my pre-authorized payment. I showed the front desk clerk my paperwork to verify my authorized payment and hotel reservation, plus I allowed him to view my e-mail sent by the booking company and it was not honored. After a long day and it being night time, I thought I would be accommodated.  However, the front desk clerk demanded that I pay for the room up front and again, otherwise I was going to have to leave the premises.  Unfortunately, the booking agency had just closed for the evening, so I paid for the night. Had I known in advance that the room was of very poor quality, I would have gone elsewhere. The room was dirty, there were ants by the bathroom area and the shower was horrid. I did not sleep under the blankets, because they looked as though they had not been changed since the room was redesigned. The door did not have a top lock, there was an imprint of where one used to exist. I had no available outlet to charge my phone, because the only one that is in the room was a non functioning outlet.  The room was supposed to come equipped with a blow dryer and it did not have one.  Plus, everything is bolted down, rusted and not functioning.  I tried really hard to find the bright side of my stay... The deal included a...Upon check in they did not honor my pre-authorized payment. I showed the front desk clerk my paperwork to verify my authorized payment and hotel reservation, plus I allowed him to view my e-mail sent by the booking company and it was not honored. After a long day and it being night time, I thought I would be accommodated.  However, the front desk clerk demanded that I pay for the room up front and again, otherwise I was going to have to leave the premises.  Unfortunately, the booking agency had just closed for the evening, so I paid for the night. Had I known in advance that the room was of very poor quality, I would have gone elsewhere. The room was dirty, there were ants by the bathroom area and the shower was horrid. I did not sleep under the blankets, because they looked as though they had not been changed since the room was redesigned. The door did not have a top lock, there was an imprint of where one used to exist. I had no available outlet to charge my phone, because the only one that is in the room was a non functioning outlet.  The room was supposed to come equipped with a blow dryer and it did not have one.  Plus, everything is bolted down, rusted and not functioning.  I tried really hard to find the bright side of my stay... The deal included a continental breakfast... However, it was a Japanese/Chinese style continental breakfast.... Rice, boiled eggs, noodles, sticky buns, Tampico juice.... And NO COFFEE. ... This place is only great for tour buses. The only recommendation that I would make in regards to this hotel, is that it be condemned.  Or maybe a code enforcement officer should go through the premises, because  there are one to many violations going on...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Upon check in they did not honor my pre-authorized payment. I showed the front desk clerk my paperwork to verify my authorized payment and hotel reservation, plus I allowed him to view my e-mail sent by the booking company and it was not honored. After a long day and it being night time, I thought I would be accommodated.  However, the front desk clerk demanded that I pay for the room up front and again, otherwise I was going to have to leave the premises.  Unfortunately, the booking agency had just closed for the evening, so I paid for the night. Had I known in advance that the room was of very poor quality, I would have gone elsewhere. The room was dirty, there were ants by the bathroom area and the shower was horrid. I did not sleep under the blankets, because they looked as though they had not been changed since the room was redesigned. The door did not have a top lock, there was an imprint of where one used to exist. I had no available outlet to charge my phone, because the only one that is in the room was a non functioning outlet.  The room was supposed to come equipped with a blow dryer and it did not have one.  Plus, everything is bolted down, rusted and not functioning.  I tried really hard to find the bright side of my stay... The deal included a...Upon check in they did not honor my pre-authorized payment. I showed the front desk clerk my paperwork to verify my authorized payment and hotel reservation, plus I allowed him to view my e-mail sent by the booking company and it was not honored. After a long day and it being night time, I thought I would be accommodated.  However, the front desk clerk demanded that I pay for the room up front and again, otherwise I was going to have to leave the premises.  Unfortunately, the booking agency had just closed for the evening, so I paid for the night. Had I known in advance that the room was of very poor quality, I would have gone elsewhere. The room was dirty, there were ants by the bathroom area and the shower was horrid. I did not sleep under the blankets, because they looked as though they had not been changed since the room was redesigned. The door did not have a top lock, there was an imprint of where one used to exist. I had no available outlet to charge my phone, because the only one that is in the room was a non functioning outlet.  The room was supposed to come equipped with a blow dryer and it did not have one.  Plus, everything is bolted down, rusted and not functioning.  I tried really hard to find the bright side of my stay... The deal included a continental breakfast... However, it was a Japanese/Chinese style continental breakfast.... Rice, boiled eggs, noodles, sticky buns, Tampico juice.... And NO COFFEE. ... This place is only great for tour buses. The only recommendation that I would make in regards to this hotel, is that it be condemned.  Or maybe a code enforcement officer should go through the premises, because  there are one to many violations going on...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r184932244-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>184932244</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Wow- easily the worst place I have EVER stayed in the US.</t>
+  </si>
+  <si>
+    <t>I knew we were in for a bad experience when the card I had to sign upon arriving included the phrase "I agree to not participate in Drug Sales or Prostitution while staying here."  It was reasonably clean, at least on the surface of things.  Our room had NO HOT WATER, so no showers.  The linens were clean but the bedspread was scary.  I got out an extra blanket and it was disgustingly skanky.  It had big chunks of stuff stuck to the blanket.  I have no idea what it was but it looked similar to chewed gum stuck in the blanket.  Just say NO.  Spend a few more dollars and stay somewhere decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I knew we were in for a bad experience when the card I had to sign upon arriving included the phrase "I agree to not participate in Drug Sales or Prostitution while staying here."  It was reasonably clean, at least on the surface of things.  Our room had NO HOT WATER, so no showers.  The linens were clean but the bedspread was scary.  I got out an extra blanket and it was disgustingly skanky.  It had big chunks of stuff stuck to the blanket.  I have no idea what it was but it looked similar to chewed gum stuck in the blanket.  Just say NO.  Spend a few more dollars and stay somewhere decent.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r183762980-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -397,16 +538,10 @@
 The hotel has its plus sides.  1. Reasonable rates for...After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.The hotel has its plus sides.  1. Reasonable rates for Los Angeles County and free parking.  2.  The breakfast attendant lady is very nice and the guests truly appreciate her.  3.  Location.  It is right off the 10 freeway, and in a relatively safe, quiet area.  Pasadena, Griffith Park, and Downtown Los Angeles are relatively nearby.  4.  There are supermarkets and grocery stores North and South of the hotel on Rosemead Boulevard.   5.  There are excellent Asian restaurants in Rosemead.  There is a vegetarian restaurant next to the hotel but I did not have have a chance to try it.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.
 The hotel has its plus sides.  1. Reasonable rates for...After reading the reviews, I was frightened about my two night stay the first weekend of November 2013.  But, the hotel is tolerable and even a good option if you know what to expect.  1.  You get a ticket from the check in desk for your breakfast.  There is no coffee or tea in the lobby, room, or breakfast room.  The breakfast is NOT for the average American traveler.  It is a traditional Chinese breakfast, a roll made from wheat flour, and a rice porridge, with pickled turnips as the topping.  Fermented bean curd cubes were also offered.  If you are not an adventurous person in terms of food, do not try the pickles or the bean curd cubes.  It is an acquired taste.  The American option is a peanut butter and jelly sandwich.  If you do not like the breakfast options, give yourself enought time to go across the street to the Target and buy coffee, tea, and familiar breakfast items.  There are also fast food places nearby that offer breakfast  2.  At check in, the clerk asks for a CASH deposit.  Have a $20 bill handy in your wallet.  3.  The pool and the hot tub are "air temperature."  Do not plan on using them off season unless you like swimming in cold water.  4. The room is not in the best condition.  5.  Parking lot is crowded.The hotel has its plus sides.  1. Reasonable rates for Los Angeles County and free parking.  2.  The breakfast attendant lady is very nice and the guests truly appreciate her.  3.  Location.  It is right off the 10 freeway, and in a relatively safe, quiet area.  Pasadena, Griffith Park, and Downtown Los Angeles are relatively nearby.  4.  There are supermarkets and grocery stores North and South of the hotel on Rosemead Boulevard.   5.  There are excellent Asian restaurants in Rosemead.  There is a vegetarian restaurant next to the hotel but I did not have have a chance to try it.More</t>
   </si>
   <si>
-    <t>Alfred A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r178343723-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -428,9 +563,6 @@
     <t>It tools my girlfriend and I 2 and half hrs to check in because they didn't have at  reservations we pulled up the confirmation number gave it to them they said because it's paid with points I had to print it up wouldn't let me use there computer to print it so it took us a hour and a half to print it up and come back then the owner was there asking us questions about are points how we got them talking down to us!!! Then says we need a deposit I try to give him my card but insist it has to be in MONEY!!! So went to a atm he asked for $35  then we come back he lowered his deposit price  to $20 when I told him I calling corporate to complain! To top it off he gave us a 2 queen beds in a small room when I asked for a 1 king and let me not this the hotel was not over booked its a dump!!!!!More</t>
   </si>
   <si>
-    <t>restaurant f</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r116793490-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -449,7 +581,46 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>bbkwong</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r114918492-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>114918492</t>
+  </si>
+  <si>
+    <t>06/30/2011</t>
+  </si>
+  <si>
+    <t>so run down that modern people can hardly live in</t>
+  </si>
+  <si>
+    <t>mostly chinese people stay there, they are rude and never smile back.i stay there twice in different rooms in my short vacation,the first room is on 2nd floor and it's pretty annoying because when people walk by,the whole floor shakes!moreover, the bathroom is a disaster!although you spend 5 mins to adjust the hot water to the right temperature,it gets hot in 30 seconds that the water burns you even though you constantly adjust the tap.the second stay has better bathroom,but the size of room is so small that only a king size bed can fit in,no table or chair as they tell you on website.one more thing IF YOU THINK ALL THE ABOVE IS OKAY,the elevator is weird,there is no open or close button, so you have to dash into the elevator as the doors open if you don't want to be SANDWICH.after closing, press the floor you want to go and WAIT A CENTURY.when the doors open, dash out ASAP and congratulations,YOU ARE NOT TRAPPED.Wifi? yes, but it's another long wait to get it to be connected.the VERY ONLY THING THAT I LIKE is the nice cuisines offered by DENNY'S nearby, but strictly speaking it's not a reason for staying at knights inn at all...except for the special discount, RMB to mention it to the staff as you pay.Oh,MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>mostly chinese people stay there, they are rude and never smile back.i stay there twice in different rooms in my short vacation,the first room is on 2nd floor and it's pretty annoying because when people walk by,the whole floor shakes!moreover, the bathroom is a disaster!although you spend 5 mins to adjust the hot water to the right temperature,it gets hot in 30 seconds that the water burns you even though you constantly adjust the tap.the second stay has better bathroom,but the size of room is so small that only a king size bed can fit in,no table or chair as they tell you on website.one more thing IF YOU THINK ALL THE ABOVE IS OKAY,the elevator is weird,there is no open or close button, so you have to dash into the elevator as the doors open if you don't want to be SANDWICH.after closing, press the floor you want to go and WAIT A CENTURY.when the doors open, dash out ASAP and congratulations,YOU ARE NOT TRAPPED.Wifi? yes, but it's another long wait to get it to be connected.the VERY ONLY THING THAT I LIKE is the nice cuisines offered by DENNY'S nearby, but strictly speaking it's not a reason for staying at knights inn at all...except for the special discount, RMB to mention it to the staff as you pay.Oh,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r108850175-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>108850175</t>
+  </si>
+  <si>
+    <t>05/18/2011</t>
+  </si>
+  <si>
+    <t>food is really bad</t>
+  </si>
+  <si>
+    <t>Spent a couple of nights there and the hotel is really bad, dirty, insecure. Location is ok but the breakfast they offer is terrible.  The food has gone bad and I complained, but no one seems to care.  Would not recommend to anyone and wonldn't stay there again, ever!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r48265596-Bokai_Garden_Hotel-Rosemead_California.html</t>
@@ -470,9 +641,6 @@
     <t>October 2009</t>
   </si>
   <si>
-    <t>misgordas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r37421350-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -494,9 +662,6 @@
     <t>I traveled with my 3 young children and my husband area is fine, but the hotel as soon as you walk in the lobby their is no friendly people that greet you at all, then when you get your keys and told what room you never get what you had reserved. I had reserved a non smoking room, I got a smoking room when you walk on the halls there is trash all over and graffiti the elevator feels like is going to drop you. I decided for this hotel cause supposed to have continental breakfast , refrigerator, microwave, ironing board, iron and coffee pot well to my surprise nothing of that was in the room, ended up purshasing a iron and a cooler to keep my sons milk fresh and last no satellite local tv only and not even a tv. control or any information about services on room, not to even mention the bee hives and bees outside the room door ceiling. Terrible stay will never go back for SURE and I will advise friends never to go there.More</t>
   </si>
   <si>
-    <t>fredangi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r3003650-Bokai_Garden_Hotel-Rosemead_California.html</t>
   </si>
   <si>
@@ -513,6 +678,39 @@
   </si>
   <si>
     <t>We stayed one night at the hotel on Dec. 27, 2004.  The gated entrance may indicate security problem but we didn't have any trouble.  We stayed on the second floor (217).  The room was clean and the toiletry was adequate.  The towels were quite worn out but useable.  There is TV, mini fridge, air cond &amp; heater.  It provided a good night stay at $60 (tax included) for a king size bed.  The location is great--a shopping centre across the street and Denny on premise and very accessible to freeway.  The food at Denny is good and the IHOP across the street is good, too.  If you are looking for a budget place to stay, it's worth the buck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r2976038-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>2976038</t>
+  </si>
+  <si>
+    <t>01/03/2005</t>
+  </si>
+  <si>
+    <t>Too late to read the previous review!</t>
+  </si>
+  <si>
+    <t>This is a terrible place.I lived on the first floor. The room was dirty and smelled terrible. The sheet looked like somebody had slept on it before you. Almost everything in the bathroom was broken.Staff was unfriendly and unhelpful. Even need deposit for TV remote controller.It was raining and late in the evening. I just forced myself to sleep in the bed without taking off my clothes. Thank God, we only booked for one night.will never come bake again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d7384295-r1273247-Bokai_Garden_Hotel-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>1273247</t>
+  </si>
+  <si>
+    <t>09/03/2003</t>
+  </si>
+  <si>
+    <t>Horrible hotel</t>
+  </si>
+  <si>
+    <t>On a tight budget, my fiance and I thought the Ramada Inn would be great at $64.60 / night including taxes. We planned on staying four nights but only stayed one. Upon driving up to the hotel, we were disgusted. There was (what looked like) vomit on the stairs going up to my room. When we got to the room it smelled of a foul odor. Because we had just flown for hours, we decided to just take this for the night. As I went to take a shower, there were ants in and out of the bath tub as well as all over the towels. As we got into bed, there was no remote. My fiance called down to see if there was a remote for the TV. The front desk said they had a remote but they weren't sure if it would work the TV. This was a horrible horrible hotel. The ONLY good thing was the Denny's by the hotel. At least we had a good breakfast as we checked out to go to the Sheraton Pasadena. More money but worth it in the long run.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a tight budget, my fiance and I thought the Ramada Inn would be great at $64.60 / night including taxes. We planned on staying four nights but only stayed one. Upon driving up to the hotel, we were disgusted. There was (what looked like) vomit on the stairs going up to my room. When we got to the room it smelled of a foul odor. Because we had just flown for hours, we decided to just take this for the night. As I went to take a shower, there were ants in and out of the bath tub as well as all over the towels. As we got into bed, there was no remote. My fiance called down to see if there was a remote for the TV. The front desk said they had a remote but they weren't sure if it would work the TV. This was a horrible horrible hotel. The ONLY good thing was the Denny's by the hotel. At least we had a good breakfast as we checked out to go to the Sheraton Pasadena. More money but worth it in the long run.More</t>
   </si>
 </sst>
 </file>
@@ -1017,117 +1215,113 @@
       <c r="A2" t="n">
         <v>10387</v>
       </c>
-      <c r="B2" t="n">
-        <v>160670</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10387</v>
       </c>
-      <c r="B3" t="n">
-        <v>160671</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1141,174 +1335,160 @@
       <c r="A4" t="n">
         <v>10387</v>
       </c>
-      <c r="B4" t="n">
-        <v>160672</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10387</v>
       </c>
-      <c r="B5" t="n">
-        <v>160673</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10387</v>
       </c>
-      <c r="B6" t="n">
-        <v>160674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1321,61 +1501,57 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10387</v>
       </c>
-      <c r="B7" t="n">
-        <v>61439</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>1</v>
@@ -1386,70 +1562,62 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10387</v>
       </c>
-      <c r="B8" t="n">
-        <v>160675</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1457,64 +1625,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10387</v>
       </c>
-      <c r="B9" t="n">
-        <v>160676</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
         <v>1</v>
       </c>
@@ -1528,206 +1686,168 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10387</v>
       </c>
-      <c r="B10" t="n">
-        <v>160677</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10387</v>
       </c>
-      <c r="B11" t="n">
-        <v>160678</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10387</v>
       </c>
-      <c r="B12" t="n">
-        <v>160679</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
         <v>1</v>
       </c>
@@ -1741,66 +1861,62 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10387</v>
       </c>
-      <c r="B13" t="n">
-        <v>160680</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1808,70 +1924,66 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10387</v>
       </c>
-      <c r="B14" t="n">
-        <v>160681</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1879,54 +1991,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10387</v>
       </c>
-      <c r="B15" t="n">
-        <v>160682</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1941,71 +2049,900 @@
         <v>1</v>
       </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10387</v>
       </c>
-      <c r="B16" t="n">
-        <v>160683</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
         <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10387</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
